--- a/docss/trend/spain/E_respiratory.xlsx
+++ b/docss/trend/spain/E_respiratory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap6_Respiratorio_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap6_Respiratorio" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1033,15 +1033,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12809,237 +12807,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.49246058017471622</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.96201390116805252</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.16284330925868237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.45803921435976791</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.92212915238129523</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.11707562582498469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.40036699955215022</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.77533279870384963</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.14533284131390206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.41499021188236873</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.84149832553216342</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.11505268504004602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.115</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.40812477725661755</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.7652554546109166</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.16440916581316267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.39811688219455316</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.8128472563137018</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.11658784917621341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.44155392092899459</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.77253818759899884</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.20424967309506359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.442</v>
+      </c>
+      <c r="C8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.40253724521227735</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.69759767309576282</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.1971278405405209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.43844218398033263</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.7394677089600008</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.22845778336713474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.438</v>
+      </c>
+      <c r="C10">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.41483325076990435</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.68653102882626016</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.22499148338117941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.45848099287094679</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.75588861895224202</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.25333796606544701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.253</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.54912770904149333</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.88559555228673348</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.32535287472842778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.51991073020572398</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.81426041460634713</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.31728716027461445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.52</v>
+      </c>
+      <c r="C14">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.317</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.59363920213171517</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.8618263692299839</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.42080513670410419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.58907557870887839</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.85890898891571044</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.3963892659580015</v>
-      </c>
+      <c r="B16">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
